--- a/results/multilabel_powerset/41468ps/automl.xlsx
+++ b/results/multilabel_powerset/41468ps/automl.xlsx
@@ -899,12 +899,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.495 (0.455 Â± 0.020)</t>
+          <t>0.515 (0.468 Â± 0.025)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:28:15 (01:50:14 Â± 01:06:35)</t>
+          <t>00:05:05 (00:08:54 Â± 00:06:57)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>[2, 5, 7, 11, 19, 23, 31, 37, 41, 67, 71]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">

--- a/results/multilabel_powerset/41468ps/automl.xlsx
+++ b/results/multilabel_powerset/41468ps/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.489 (0.476 Â± 0.010)</t>
+          <t>0.489 (0.476 ± 0.010)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:04:59 (00:08:18 Â± 00:02:34)</t>
+          <t>00:04:59 (00:08:18 ± 00:02:34)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:04 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:04 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.516 (0.475 Â± 0.018)</t>
+          <t>0.516 (0.475 ± 0.018)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:01:05 (00:01:22 Â± 00:00:11)</t>
+          <t>00:01:05 (00:01:22 ± 00:00:11)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.487 (0.430 Â± 0.034)</t>
+          <t>0.487 (0.430 ± 0.034)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:43 (00:00:59 Â± 00:00:16)</t>
+          <t>00:00:43 (00:00:59 ± 00:00:16)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.474 (0.227 Â± 0.148)</t>
+          <t>0.474 (0.227 ± 0.148)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:05 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.533 (0.492 Â± 0.026)</t>
+          <t>0.533 (0.492 ± 0.026)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:56 (00:05:01 Â± 00:00:02)</t>
+          <t>00:04:56 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:00 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.469 (0.468 Â± 0.001)</t>
+          <t>0.469 (0.468 ± 0.001)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:06 Â± 00:00:02)</t>
+          <t>00:05:03 (00:05:06 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.496 (0.464 Â± 0.022)</t>
+          <t>0.496 (0.464 ± 0.022)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:04 Â± 00:00:03)</t>
+          <t>00:05:00 (00:05:04 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -707,17 +707,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.456 (0.450 Â± 0.005)</t>
+          <t>0.456 (0.450 ± 0.005)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.370 (0.307 Â± 0.045)</t>
+          <t>0.370 (0.307 ± 0.045)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:06 (00:05:07 Â± 00:00:00)</t>
+          <t>00:05:06 (00:05:07 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -771,17 +771,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.506 (0.463 Â± 0.028)</t>
+          <t>0.506 (0.463 ± 0.028)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:02:03 (00:05:11 Â± 00:02:05)</t>
+          <t>00:02:03 (00:05:11 ± 00:02:05)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -803,17 +803,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.146 (0.099 Â± 0.033)</t>
+          <t>0.146 (0.099 ± 0.033)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:08 (00:00:09 Â± 00:00:00)</t>
+          <t>00:00:08 (00:00:09 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -835,17 +835,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.477 (0.449 Â± 0.019)</t>
+          <t>0.477 (0.449 ± 0.019)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:01:44 (00:01:56 Â± 00:00:07)</t>
+          <t>00:01:44 (00:01:56 ± 00:00:07)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -867,17 +867,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.495 (0.462 Â± 0.016)</t>
+          <t>0.495 (0.462 ± 0.016)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:01:22 (00:04:30 Â± 00:00:55)</t>
+          <t>00:01:22 (00:04:30 ± 00:00:55)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.515 (0.468 Â± 0.025)</t>
+          <t>0.515 (0.468 ± 0.025)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:05:05 (00:08:54 Â± 00:06:57)</t>
+          <t>00:05:05 (00:08:54 ± 00:06:57)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -931,17 +931,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.504 (0.460 Â± 0.022)</t>
+          <t>0.504 (0.460 ± 0.022)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:03 (00:05:51 Â± 00:00:26)</t>
+          <t>00:05:03 (00:05:51 ± 00:00:26)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
